--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-06-30.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-06-30.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome  do  requerente,  nacionalidade,  profissão,</t>
+          <t>Nome  do  requerente,  nacionalidade,  profissão, RL — Despachos proferidos por sentença alterando morada. despacho anterior.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ANJOS CUIDADORES - APOIO</t>
+          <t>ANJOS CUIDADORES - APOIO DOMICILIÁRIO, LDA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LUÍS ANTÓNIO MONTEIRO DE</t>
+          <t>LUÍS ANTÓNIO MONTEIRO DE ALMEIDA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1500,11 +1500,7 @@
           <t>2025.06.11</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>QUINTA DAS ARCAS - SOC. AGRICOLA,</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -1606,7 +1602,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CRISTIANO DAVID CAMACHO</t>
+          <t>CRISTIANO DAVID CAMACHO RODRIGUES ABREU</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1890,7 +1886,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FREDBRAND COMUNICAÇÃO,</t>
+          <t>FREDBRAND COMUNICAÇÃO, UNIPESSOAL, LDA. LOG</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1914,7 +1910,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -1982,7 +1978,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2006,7 +2002,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MYMETRO - CONSULTING, TRAINING</t>
+          <t>MYMETRO - CONSULTING, TRAINING LOG &amp; METROLOGY LDA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>

--- a/webscrapping school/msaces/Boletim_da_PI_-_2025-06-30.xlsx
+++ b/webscrapping school/msaces/Boletim_da_PI_-_2025-06-30.xlsx
@@ -510,12 +510,12 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>(531)  7.1.24 ; 26.4.22</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,12 +562,12 @@
           <t>33</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>(531)  2.1.20</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -618,11 +618,7 @@
           <t>43</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>WISE SHIELD WISE PIRATES</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>(531)  27.5.10</t>
@@ -702,12 +698,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>QUINTA DOS NOVAIS DE CIMA</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -786,12 +782,12 @@
           <t>36</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>(531)  2.9.1 ; 7.1.24 ; 29.1.1</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -894,12 +890,12 @@
           <t>39</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>(531)  24.17.24 ; 27.1.4 ; 27.5.4 ; 27.5.10</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -948,14 +944,10 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>POLÍTICA;  SERVIÇOS DE MERCHANDISING.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>LAS ROSAS</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1006,12 +998,12 @@
           <t>09</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>(531)  26.11.12 ; 27.5.10</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1034,12 +1026,12 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>(531)  5.3.15 ; 15.1.13</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1062,12 +1054,12 @@
           <t>36</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>(531)  26.2.7 ; 27.5.10</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1118,12 +1110,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>(531)  7.15.5 ; 27.5.10</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1172,14 +1164,10 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ANJOS CUIDADORES</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>(511)  44  SERVIÇOS</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1254,12 +1242,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>(531)  7.1.24 ; 26.4.5 ; 26.4.16 ; 29.1.2</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1282,12 +1270,12 @@
           <t>42</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>(531)  27.5.1</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1394,12 +1382,12 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>(531)  2.1.29 ; 6.1.4</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1424,14 +1412,10 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ARCAS</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>VINHOS  DE  MESA;</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1526,12 +1510,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>(531)  26.11.12 ; 27.5.1</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1554,12 +1538,12 @@
           <t>25</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>(531)  27.5.13</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1582,12 +1566,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>(531)  27.5.10 ; 27.5.17</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1610,12 +1594,12 @@
           <t>35</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>(531)  27.99.3</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1718,12 +1702,12 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>(531)  26.1.5 ; 26.99.6</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1794,12 +1778,12 @@
           <t>41</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
         <is>
           <t>(531)  27.5.1</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1840,14 +1824,10 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>(531)  1.3.2 ; 6.1.4 ; 15.7.21 ; 26.11.13</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>E OUTRAS ATIVIDADES RECREATIVAS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1866,12 +1846,12 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>(531)  2.3.8 ; 26.13.1 ; 29.1.13</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1934,12 +1914,12 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>(531)  3.7.10 ; 3.7.16</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1958,12 +1938,12 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>(531)  26.1.5 ; 26.99.6</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2006,12 +1986,12 @@
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>(531)  26.1.5 ; 26.99.6</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
